--- a/xlsx/牙买加_intext.xlsx
+++ b/xlsx/牙买加_intext.xlsx
@@ -15,2397 +15,2370 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="788">
   <si>
     <t>牙买加</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E5%9C%8B%E6%97%97</t>
+  </si>
+  <si>
+    <t>牙买加国旗</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_牙买加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E5%9B%BD%E5%BE%BD</t>
+  </si>
+  <si>
+    <t>牙买加国徽</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家格言列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
+  </si>
+  <si>
+    <t>国歌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%EF%BC%8C%E6%88%91%E4%BB%AC%E7%83%AD%E7%88%B1%E7%9A%84%E5%AE%B6%E5%9B%AD</t>
+  </si>
+  <si>
+    <t>牙买加，我们热爱的家园</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
+  </si>
+  <si>
+    <t>首都</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%96%AF%E6%95%A6</t>
+  </si>
+  <si>
+    <t>京斯敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
+  </si>
+  <si>
+    <t>时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-5</t>
+  </si>
+  <si>
+    <t>UTC-5</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2016年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国家人口密度列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
+  </si>
+  <si>
+    <t>官方语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>黑人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
+  </si>
+  <si>
+    <t>主要节日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
+  </si>
+  <si>
+    <t>单一制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>政权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
+  </si>
+  <si>
+    <t>君主立宪制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
+  </si>
+  <si>
+    <t>政治体制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
+  </si>
+  <si>
+    <t>议会民主制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
+  </si>
+  <si>
+    <t>国家元首</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E5%A5%B3%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>牙买加女王</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%BA%97%E8%8E%8E%E7%99%BD%E4%BA%8C%E4%B8%96</t>
+  </si>
+  <si>
+    <t>伊丽莎白二世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E7%B8%BD%E7%9D%A3</t>
+  </si>
+  <si>
+    <t>牙买加总督</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E9%87%8C%E5%85%8B%C2%B7%E8%89%BE%E5%80%AB</t>
+  </si>
+  <si>
+    <t>帕特里克·艾伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
+  </si>
+  <si>
+    <t>政府首脑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E6%80%BB%E7%90%86</t>
+  </si>
+  <si>
+    <t>牙买加总理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E9%9C%8D%E5%B0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>安德鲁·霍尼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
+  </si>
+  <si>
+    <t>国内生产总值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
+  </si>
+  <si>
+    <t>购买力平价</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>人类发展指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
+  </si>
+  <si>
+    <t>2013年</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>中央银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>牙买加银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E5%85%83</t>
+  </si>
+  <si>
+    <t>牙买加元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
+  </si>
+  <si>
+    <t>ISO 3166-1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
+  </si>
+  <si>
+    <t>国际域名缩写</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/.jm</t>
+  </si>
+  <si>
+    <t>.jm</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>国际电话区号列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>加勒比海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B2%9B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>岛国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印第安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%93%A6%E5%85%8B%E8%AA%9E%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>阿拉瓦克语系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AF%BA%E6%97%8F</t>
+  </si>
+  <si>
+    <t>泰诺族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E5%B8%83</t>
+  </si>
+  <si>
+    <t>哥伦布</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
+  </si>
+  <si>
+    <t>英联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E7%8E%8B%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英联邦王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>主权国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>牙买加历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8B%81%E5%9C%9F%E7%A4%A6</t>
+  </si>
+  <si>
+    <t>铝土矿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%93%A6%E5%85%8B%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>阿拉瓦克语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>明代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A4%E8%BC%BF%E8%90%AC%E5%9C%8B%E5%85%A8%E5%9C%96</t>
+  </si>
+  <si>
+    <t>坤舆万国全图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>西非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
+  </si>
+  <si>
+    <t>塞拉利昂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%BD%84%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>直辖殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%B0%E5%BA%A6%E8%81%94%E9%82%A6</t>
+  </si>
+  <si>
+    <t>西印度联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%A5%BF%E4%BA%9E%C2%B7%E7%B1%B3%E5%8B%92</t>
+  </si>
+  <si>
+    <t>波西亚·米勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E9%9B%A8%E6%9E%97%E6%B0%94%E5%80%99</t>
+  </si>
+  <si>
+    <t>热带雨林气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E8%BB%8D%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>牙买加军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>牙买加国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%90%9B%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>英国君主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%9B%BD%E5%AE%B6%E5%85%9A</t>
+  </si>
+  <si>
+    <t>人民国家党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E5%8B%9E%E5%B7%A5%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>牙买加劳工党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%93%9D%E5%9C%9F%E7%9F%BF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%94%97%E7%B3%96</t>
+  </si>
+  <si>
+    <t>蔗糖</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>旅游业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%B1%87</t>
+  </si>
+  <si>
+    <t>外汇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%B5%84%E6%BA%90</t>
+  </si>
+  <si>
+    <t>自然资源</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%BF%E7%89%A9</t>
+  </si>
+  <si>
+    <t>矿物</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%92%B4</t>
+  </si>
+  <si>
+    <t>钴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%93%9C</t>
+  </si>
+  <si>
+    <t>铜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%93%81</t>
+  </si>
+  <si>
+    <t>铁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%93%85</t>
+  </si>
+  <si>
+    <t>铅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%94%8C</t>
+  </si>
+  <si>
+    <t>锌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E8%86%8F</t>
+  </si>
+  <si>
+    <t>石膏</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97</t>
+  </si>
+  <si>
+    <t>森林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8A%A0%E5%B7%A5</t>
+  </si>
+  <si>
+    <t>食品加工</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A5%AE%E6%96%99</t>
+  </si>
+  <si>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B7%E7%83%9F</t>
+  </si>
+  <si>
+    <t>卷烟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%95%89</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%8F%AF</t>
+  </si>
+  <si>
+    <t>可可</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%A3%E6%A4%92%E5%B1%9E</t>
+  </si>
+  <si>
+    <t>辣椒属</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>牙买加行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%87%8C%E9%83%A1_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
+  </si>
+  <si>
+    <t>萨里郡 (牙买加)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%AF%E6%95%A6%E5%8D%80</t>
+  </si>
+  <si>
+    <t>金斯敦区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD%E5%8D%80</t>
+  </si>
+  <si>
+    <t>波特兰区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E5%BE%B7%E9%AD%AF%E5%8D%80_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
+  </si>
+  <si>
+    <t>圣安德鲁区 (牙买加)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%89%98%E9%A6%AC%E6%96%AF%E5%8D%80_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
+  </si>
+  <si>
+    <t>圣托马斯区 (牙买加)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%BE%B7%E7%88%BE%E5%A1%9E%E5%85%8B%E6%96%AF%E9%83%A1_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
+  </si>
+  <si>
+    <t>米德尔塞克斯郡 (牙买加)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%80%AB%E7%99%BB%E5%8D%80</t>
+  </si>
+  <si>
+    <t>克拉伦登区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B9%E6%96%AF%E7%89%B9%E5%8D%80</t>
+  </si>
+  <si>
+    <t>曼彻斯特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E5%A8%9C%E5%8D%80</t>
+  </si>
+  <si>
+    <t>圣安娜区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%87%B1%E7%91%9F%E7%90%B3%E5%8D%80</t>
+  </si>
+  <si>
+    <t>圣凯瑟琳区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%91%AA%E9%BA%97%E5%8D%80_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
+  </si>
+  <si>
+    <t>圣玛丽区 (牙买加)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B2%83%E7%88%BE%E9%83%A1_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
+  </si>
+  <si>
+    <t>康沃尔郡 (牙买加)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%BA%E5%A8%81%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>汉诺威区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BC%8A%E9%BA%97%E8%8E%8E%E7%99%BD%E5%8D%80</t>
+  </si>
+  <si>
+    <t>圣伊丽莎白区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%A9%B9%E5%A7%86%E6%96%AF%E5%8D%80_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
+  </si>
+  <si>
+    <t>圣詹姆斯区 (牙买加)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E6%B4%9B%E5%B0%BC%E5%8D%80</t>
+  </si>
+  <si>
+    <t>特里洛尼区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E7%89%B9%E6%91%A9%E8%98%AD%E5%8D%80_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
+  </si>
+  <si>
+    <t>威斯特摩兰区 (牙买加)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%AE%AF%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>通讯社</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>广播电台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>电视台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%8B%89%E6%89%98%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>穆拉托人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印度人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>白人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>华人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>牙买加文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>埃塞俄比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B0%94%C2%B7%E5%A1%9E%E6%8B%89%E8%A5%BF%E4%B8%80%E4%B8%96</t>
+  </si>
+  <si>
+    <t>海尔·塞拉西一世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%89%B9%E6%B3%95%E9%87%8C%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>拉斯特法里运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E7%90%83</t>
+  </si>
+  <si>
+    <t>板球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
+  </si>
+  <si>
+    <t>足球</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%BE%91</t>
+  </si>
+  <si>
+    <t>田径</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%A6%AC</t>
+  </si>
+  <si>
+    <t>赛马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%8C%97%E4%BA%AC%E5%A5%A7%E9%81%8B</t>
+  </si>
+  <si>
+    <t>2008年北京奥运</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E8%B7%91</t>
+  </si>
+  <si>
+    <t>短跑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%A1%9E%E6%81%A9%C2%B7%E5%8D%9A%E5%B0%94%E7%89%B9</t>
+  </si>
+  <si>
+    <t>乌塞恩·博尔特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E7%BD%97%E5%B0%BC%E5%8D%A1%C2%B7%E5%9D%8E%E8%B4%9D%E5%B0%94-%E5%B8%83%E6%9C%97</t>
+  </si>
+  <si>
+    <t>维罗尼卡·坎贝尔-布朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%89%8C</t>
+  </si>
+  <si>
+    <t>金牌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/100%E7%B1%B3</t>
+  </si>
+  <si>
+    <t>100米</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/200%E7%B1%B3</t>
+  </si>
+  <si>
+    <t>200米</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E8%A9%B9%E6%A3%AE_(%E7%94%B0%E5%BE%91%E9%81%8B%E5%8B%95%E5%93%A1)</t>
+  </si>
+  <si>
+    <t>麦可·詹森 (田径运动员)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>卡尔·刘易斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%96%A9%E6%B3%95%C2%B7%E9%AE%91%E5%A8%81%E7%88%BE</t>
+  </si>
+  <si>
+    <t>阿萨法·鲍威尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
+  </si>
+  <si>
+    <t>International Monetary Fund</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AF%BC%E6%B8%B8</t>
+  </si>
+  <si>
+    <t>维基导游</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
+  </si>
+  <si>
+    <t>世界概况</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
+  </si>
+  <si>
+    <t>开放式目录</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wikia</t>
+  </si>
+  <si>
+    <t>Wikia</t>
+  </si>
+  <si>
+    <t>http://www.wikia.com/wiki/c:world:Jamaica:Main_Page</t>
+  </si>
+  <si>
+    <t>wikiasite-world-Jamaica-Main Page</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:America</t>
+  </si>
+  <si>
+    <t>Template talk-America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>中美 (政治地理学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
+  </si>
+  <si>
+    <t>伯利兹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
+  </si>
+  <si>
+    <t>萨尔瓦多</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>洪都拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
+  </si>
+  <si>
+    <t>尼加拉瓜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴拿马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>安提瓜和巴布达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>巴哈马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
+  </si>
+  <si>
+    <t>巴巴多斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
+  </si>
+  <si>
+    <t>多米尼克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>多明尼加共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>格林纳达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣克里斯多福与尼维斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>圣卢西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF</t>
+  </si>
+  <si>
+    <t>圣文森特和格林纳丁斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
+  </si>
+  <si>
+    <t>千里达及托巴哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
+  </si>
+  <si>
+    <t>阿根廷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>玻利维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
+  </si>
+  <si>
+    <t>智利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>哥伦比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>厄瓜多尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
+  </si>
+  <si>
+    <t>圭亚那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
+  </si>
+  <si>
+    <t>秘鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>巴拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
+  </si>
+  <si>
+    <t>苏利南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
+  </si>
+  <si>
+    <t>乌拉圭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
+  </si>
+  <si>
+    <t>委内瑞拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安圭拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>阿鲁巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>库拉索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
+  </si>
+  <si>
+    <t>荷属圣马丁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>英属维京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>百慕大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>开曼群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>福克兰群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
+  </si>
+  <si>
+    <t>法属圭亚那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
+  </si>
+  <si>
+    <t>格陵兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
+  </si>
+  <si>
+    <t>瓜德罗普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
+  </si>
+  <si>
+    <t>马提尼克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
+  </si>
+  <si>
+    <t>法属圣马丁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>圣巴泰勒米岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>蒙塞拉特岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>纳弗沙岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
+  </si>
+  <si>
+    <t>圣皮埃尔和密克隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%92%8C%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>南乔治亚和南桑威奇群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E5%92%8C%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>特克斯和凯科斯群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>孟加拉国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%9C%AD%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波札那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%8E%B1</t>
+  </si>
+  <si>
+    <t>文莱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
+  </si>
+  <si>
+    <t>喀麦隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>赛普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>加纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>肯尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF</t>
+  </si>
+  <si>
+    <t>基里巴斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E7%B4%A2%E6%89%98</t>
+  </si>
+  <si>
+    <t>莱索托</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E7%BB%B4</t>
+  </si>
+  <si>
+    <t>马拉维</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
+  </si>
+  <si>
+    <t>马耳他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E6%B1%82%E6%96%AF</t>
+  </si>
+  <si>
+    <t>毛里求斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>莫桑比克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>纳米比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%99%E9%B2%81</t>
+  </si>
+  <si>
+    <t>瑙鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E5%85%B0</t>
+  </si>
+  <si>
+    <t>新西兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>奈及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>巴布亚新几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>卢旺达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%91%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞舌尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
+  </si>
+  <si>
+    <t>新加坡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>所罗门群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>斯里兰卡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
+  </si>
+  <si>
+    <t>斯威士兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>坦桑尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>汤加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
+  </si>
+  <si>
+    <t>图瓦卢</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>乌干达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>瓦努阿图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>赞比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%83%E5%A4%96%E9%A2%86</t>
+  </si>
+  <si>
+    <t>境外领</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>亚什摩及卡地尔群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>澳大利亚南极领地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>圣诞岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>科科斯（基林）群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>珊瑚海群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贺得及麦唐纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>诺福克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%85%8B%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>库克群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
+  </si>
+  <si>
+    <t>纽埃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>罗斯属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8A%B3</t>
+  </si>
+  <si>
+    <t>托克劳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E7%BD%97%E8%92%82%E9%87%8C%E5%92%8C%E5%BE%B7%E5%87%AF%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿克罗蒂里和德凯利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>英属南极领地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A2%86%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>英属印度洋领地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>英属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%81%A9%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>马恩岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%BD%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>泽西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>皮特凯恩群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B5%AB%E5%8B%92%E6%8B%BF%E3%80%81%E9%98%BF%E6%A3%AE%E6%9D%BE%E5%92%8C%E7%89%B9%E9%87%8C%E6%96%AF%E5%9D%A6-%E8%BE%BE%E5%BA%93%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>圣赫勒拿、阿森松和特里斯坦-达库尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E4%B8%8E%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>特克斯与凯科斯群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8D%94%E5%A2%83%E5%9F%9F</t>
+  </si>
+  <si>
+    <t>国协境域</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E9%A2%86</t>
+  </si>
+  <si>
+    <t>自治领</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E9%81%94%E5%90%9B%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>安提瓜和巴布达君主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>纽西兰王国</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Monarchy_in_the_Cook_Islands</t>
+  </si>
+  <si>
+    <t>en-Monarchy in the Cook Islands</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Niuean_monarchs</t>
+  </si>
+  <si>
+    <t>en-List of Niuean monarchs</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
+  </si>
+  <si>
+    <t>锡兰自治领</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E%E8%87%AA%E6%B2%BB%E9%A2%86</t>
+  </si>
+  <si>
+    <t>斐济自治领</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Monarchy_of_Fiji</t>
+  </si>
+  <si>
+    <t>en-Monarchy of Fiji</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Gambia_(Commonwealth_realm)</t>
+  </si>
+  <si>
+    <t>en-The Gambia (Commonwealth realm)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Guyana_(Commonwealth_realm)</t>
+  </si>
+  <si>
+    <t>en-Guyana (Commonwealth realm)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E8%87%AA%E7%94%B1%E9%82%A6</t>
+  </si>
+  <si>
+    <t>爱尔兰自由邦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Monarchy_in_the_Irish_Free_State</t>
+  </si>
+  <si>
+    <t>en-Monarchy in the Irish Free State</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kenya_(Commonwealth_realm)</t>
+  </si>
+  <si>
+    <t>en-Kenya (Commonwealth realm)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Malawi_(Commonwealth_realm)</t>
+  </si>
+  <si>
+    <t>en-Malawi (Commonwealth realm)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_of_Malta</t>
+  </si>
+  <si>
+    <t>en-State of Malta</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mauritius_(Commonwealth_realm)</t>
+  </si>
+  <si>
+    <t>en-Mauritius (Commonwealth realm)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
+  </si>
+  <si>
+    <t>纽芬兰自治领</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Federation_of_Nigeria</t>
+  </si>
+  <si>
+    <t>en-Federation of Nigeria</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>罗德西亚</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sierra_Leone_(Commonwealth_realm)</t>
+  </si>
+  <si>
+    <t>en-Sierra Leone (Commonwealth realm)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Monarchy_of_South_Africa</t>
+  </si>
+  <si>
+    <t>en-Monarchy of South Africa</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%99%B6%E5%B0%BC%E5%96%80</t>
+  </si>
+  <si>
+    <t>坦噶尼喀</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Trinidad_and_Tobago_(Commonwealth_realm)</t>
+  </si>
+  <si>
+    <t>en-Trinidad and Tobago (Commonwealth realm)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Uganda_(Commonwealth_realm)</t>
+  </si>
+  <si>
+    <t>en-Uganda (Commonwealth realm)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/1931%E5%B9%B4%E5%A8%81%E6%96%AF%E6%95%8F%E6%96%AF%E7%89%B9%E6%B3%95%E4%BB%A4</t>
+  </si>
+  <si>
+    <t>1931年威斯敏斯特法令</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>不结盟运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
+  </si>
+  <si>
+    <t>阿富汗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔及利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安哥拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
+  </si>
+  <si>
+    <t>阿塞拜疆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
+  </si>
+  <si>
+    <t>巴林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
+  </si>
+  <si>
+    <t>贝宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>不丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>博茨瓦纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
+  </si>
+  <si>
+    <t>汶莱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>布基纳法索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9A%86%E8%BF%AA</t>
+  </si>
+  <si>
+    <t>布隆迪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
+  </si>
+  <si>
+    <t>柬埔寨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
+  </si>
+  <si>
+    <t>佛得角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中非共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
+  </si>
+  <si>
+    <t>乍得</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
+  </si>
+  <si>
+    <t>葛摩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>刚果共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
+  </si>
+  <si>
+    <t>科特迪瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>朝鲜民主主义人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>刚果民主共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
+  </si>
+  <si>
+    <t>吉布提</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>多米尼加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>赤道几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>厄立特里亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
+  </si>
+  <si>
+    <t>加蓬</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>冈比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>几内亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%AF%94%E7%BB%8D</t>
+  </si>
+  <si>
+    <t>几内亚比绍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>印度尼西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
+  </si>
+  <si>
+    <t>伊朗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
+  </si>
+  <si>
+    <t>伊拉克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
+  </si>
+  <si>
+    <t>约旦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
+  </si>
+  <si>
+    <t>科威特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
+  </si>
+  <si>
+    <t>老挝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比里亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>马达加斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BB%A3%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>马尔代夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>马里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>毛里塔尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>蒙古国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
+  </si>
+  <si>
+    <t>摩洛哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
+  </si>
+  <si>
+    <t>缅甸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尼泊尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
+  </si>
+  <si>
+    <t>尼日尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>阿曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴勒斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
+  </si>
+  <si>
+    <t>卡塔尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
+  </si>
+  <si>
+    <t>圣多美和普林西比</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>沙特阿拉伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
+  </si>
+  <si>
+    <t>塞内加尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
+  </si>
+  <si>
+    <t>索马里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>苏丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
+  </si>
+  <si>
+    <t>东帝汶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
+  </si>
+  <si>
+    <t>多哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>突尼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>土库曼斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>阿拉伯联合酋长国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>乌兹别克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
+  </si>
+  <si>
+    <t>也门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
+  </si>
+  <si>
+    <t>津巴布韦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>克罗地亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>吉尔吉斯斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特内哥罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>塔吉克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>非洲联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>阿拉伯国家联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>伊斯兰合作组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞士历史辞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E5%9C%8B%E6%97%97</t>
-  </si>
-  <si>
-    <t>牙買加國旗</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_牙买加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E5%9B%BD%E5%BE%BD</t>
-  </si>
-  <si>
-    <t>牙买加国徽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家格言列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
-  </si>
-  <si>
-    <t>國歌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%EF%BC%8C%E6%88%91%E4%BB%AC%E7%83%AD%E7%88%B1%E7%9A%84%E5%AE%B6%E5%9B%AD</t>
-  </si>
-  <si>
-    <t>牙买加，我们热爱的家园</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國家面積列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
-  </si>
-  <si>
-    <t>首都</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%96%AF%E6%95%A6</t>
-  </si>
-  <si>
-    <t>京斯敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
-  </si>
-  <si>
-    <t>時區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC</t>
-  </si>
-  <si>
-    <t>UTC</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-5</t>
-  </si>
-  <si>
-    <t>UTC-5</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國家人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2016年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>国家人口密度列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>官方語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>黑人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
-  </si>
-  <si>
-    <t>主要節日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
-  </si>
-  <si>
-    <t>單一制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>政權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
-  </si>
-  <si>
-    <t>君主立憲制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
-  </si>
-  <si>
-    <t>政治體制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E6%B0%91%E4%B8%BB%E5%88%B6</t>
-  </si>
-  <si>
-    <t>议会民主制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
-  </si>
-  <si>
-    <t>國家元首</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E5%A5%B3%E7%8E%8B</t>
-  </si>
-  <si>
-    <t>牙买加女王</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%BA%97%E8%8E%8E%E7%99%BD%E4%BA%8C%E4%B8%96</t>
-  </si>
-  <si>
-    <t>伊麗莎白二世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E7%B8%BD%E7%9D%A3</t>
-  </si>
-  <si>
-    <t>牙買加總督</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E9%87%8C%E5%85%8B%C2%B7%E8%89%BE%E5%80%AB</t>
-  </si>
-  <si>
-    <t>帕特里克·艾倫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
-  </si>
-  <si>
-    <t>政府首腦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E6%80%BB%E7%90%86</t>
-  </si>
-  <si>
-    <t>牙买加总理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%B2%81%C2%B7%E9%9C%8D%E5%B0%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>安德鲁·霍尼斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
-  </si>
-  <si>
-    <t>國內生產總值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
-  </si>
-  <si>
-    <t>購買力平價</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>人類發展指數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
-  </si>
-  <si>
-    <t>2013年</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>中央銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>牙买加银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E5%85%83</t>
-  </si>
-  <si>
-    <t>牙買加元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
-  </si>
-  <si>
-    <t>ISO 3166-1</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
-  </si>
-  <si>
-    <t>國際域名縮寫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/.jm</t>
-  </si>
-  <si>
-    <t>.jm</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>國際電話區號列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>加勒比海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B2%9B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>岛国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印第安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%93%A6%E5%85%8B%E8%AA%9E%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>阿拉瓦克語系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AF%BA%E6%97%8F</t>
-  </si>
-  <si>
-    <t>泰诺族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E5%B8%83</t>
-  </si>
-  <si>
-    <t>哥伦布</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
-  </si>
-  <si>
-    <t>英联邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E7%8E%8B%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英聯邦王國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>主權國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>牙买加历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8B%81%E5%9C%9F%E7%A4%A6</t>
-  </si>
-  <si>
-    <t>鋁土礦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E7%93%A6%E5%85%8B%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>阿拉瓦克語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>明代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A4%E8%BC%BF%E8%90%AC%E5%9C%8B%E5%85%A8%E5%9C%96</t>
-  </si>
-  <si>
-    <t>坤輿萬國全圖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>西非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%88%A9%E6%98%82</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%BD%84%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>直轄殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%B0%E5%BA%A6%E8%81%94%E9%82%A6</t>
-  </si>
-  <si>
-    <t>西印度联邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%A5%BF%E4%BA%9E%C2%B7%E7%B1%B3%E5%8B%92</t>
-  </si>
-  <si>
-    <t>波西亞·米勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E9%9B%A8%E6%9E%97%E6%B0%94%E5%80%99</t>
-  </si>
-  <si>
-    <t>热带雨林气候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E8%BB%8D%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>牙買加軍事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>牙买加国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%90%9B%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>英國君主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%9B%BD%E5%AE%B6%E5%85%9A</t>
-  </si>
-  <si>
-    <t>人民国家党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0%E5%8B%9E%E5%B7%A5%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>牙買加勞工黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%93%9D%E5%9C%9F%E7%9F%BF</t>
-  </si>
-  <si>
-    <t>铝土矿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%94%97%E7%B3%96</t>
-  </si>
-  <si>
-    <t>蔗糖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>旅游业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%B1%87</t>
-  </si>
-  <si>
-    <t>外汇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%B5%84%E6%BA%90</t>
-  </si>
-  <si>
-    <t>自然资源</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%BF%E7%89%A9</t>
-  </si>
-  <si>
-    <t>矿物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%92%B4</t>
-  </si>
-  <si>
-    <t>钴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%93%9C</t>
-  </si>
-  <si>
-    <t>铜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%93%81</t>
-  </si>
-  <si>
-    <t>铁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%93%85</t>
-  </si>
-  <si>
-    <t>铅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%94%8C</t>
-  </si>
-  <si>
-    <t>锌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E8%86%8F</t>
-  </si>
-  <si>
-    <t>石膏</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97</t>
-  </si>
-  <si>
-    <t>森林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8A%A0%E5%B7%A5</t>
-  </si>
-  <si>
-    <t>食品加工</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A5%AE%E6%96%99</t>
-  </si>
-  <si>
-    <t>饮料</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B7%E7%83%9F</t>
-  </si>
-  <si>
-    <t>卷烟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E8%95%89</t>
-  </si>
-  <si>
-    <t>香蕉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%8F%AF</t>
-  </si>
-  <si>
-    <t>可可</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1</t>
-  </si>
-  <si>
-    <t>咖啡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%A3%E6%A4%92%E5%B1%9E</t>
-  </si>
-  <si>
-    <t>辣椒属</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>牙买加行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%87%8C%E9%83%A1_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
-  </si>
-  <si>
-    <t>薩里郡 (牙買加)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%96%AF%E6%95%A6%E5%8D%80</t>
-  </si>
-  <si>
-    <t>金斯敦區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD%E5%8D%80</t>
-  </si>
-  <si>
-    <t>波特蘭區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E5%BE%B7%E9%AD%AF%E5%8D%80_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
-  </si>
-  <si>
-    <t>聖安德魯區 (牙買加)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%89%98%E9%A6%AC%E6%96%AF%E5%8D%80_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
-  </si>
-  <si>
-    <t>聖托馬斯區 (牙買加)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%BE%B7%E7%88%BE%E5%A1%9E%E5%85%8B%E6%96%AF%E9%83%A1_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
-  </si>
-  <si>
-    <t>米德爾塞克斯郡 (牙買加)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%80%AB%E7%99%BB%E5%8D%80</t>
-  </si>
-  <si>
-    <t>克拉倫登區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B9%E6%96%AF%E7%89%B9%E5%8D%80</t>
-  </si>
-  <si>
-    <t>曼徹斯特區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%AE%89%E5%A8%9C%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聖安娜區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%87%B1%E7%91%9F%E7%90%B3%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聖凱瑟琳區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%91%AA%E9%BA%97%E5%8D%80_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
-  </si>
-  <si>
-    <t>聖瑪麗區 (牙買加)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B2%83%E7%88%BE%E9%83%A1_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
-  </si>
-  <si>
-    <t>康沃爾郡 (牙買加)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%BA%E5%A8%81%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>汉诺威区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BC%8A%E9%BA%97%E8%8E%8E%E7%99%BD%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聖伊麗莎白區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%A9%B9%E5%A7%86%E6%96%AF%E5%8D%80_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
-  </si>
-  <si>
-    <t>聖詹姆斯區 (牙買加)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E6%B4%9B%E5%B0%BC%E5%8D%80</t>
-  </si>
-  <si>
-    <t>特里洛尼區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E7%89%B9%E6%91%A9%E8%98%AD%E5%8D%80_(%E7%89%99%E8%B2%B7%E5%8A%A0)</t>
-  </si>
-  <si>
-    <t>威斯特摩蘭區 (牙買加)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%AE%AF%E7%A4%BE</t>
-  </si>
-  <si>
-    <t>通讯社</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>广播电台</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>电视台</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%8B%89%E6%89%98%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>穆拉托人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印度人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>白人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>華人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>牙买加文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B0%94%C2%B7%E5%A1%9E%E6%8B%89%E8%A5%BF%E4%B8%80%E4%B8%96</t>
-  </si>
-  <si>
-    <t>海尔·塞拉西一世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%89%B9%E6%B3%95%E9%87%8C%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>拉斯特法里运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E7%90%83</t>
-  </si>
-  <si>
-    <t>板球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
-  </si>
-  <si>
-    <t>足球</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%BE%91</t>
-  </si>
-  <si>
-    <t>田徑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>賽馬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%8C%97%E4%BA%AC%E5%A5%A7%E9%81%8B</t>
-  </si>
-  <si>
-    <t>2008年北京奧運</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E8%B7%91</t>
-  </si>
-  <si>
-    <t>短跑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%A1%9E%E6%81%A9%C2%B7%E5%8D%9A%E5%B0%94%E7%89%B9</t>
-  </si>
-  <si>
-    <t>乌塞恩·博尔特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E7%BD%97%E5%B0%BC%E5%8D%A1%C2%B7%E5%9D%8E%E8%B4%9D%E5%B0%94-%E5%B8%83%E6%9C%97</t>
-  </si>
-  <si>
-    <t>维罗尼卡·坎贝尔-布朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%89%8C</t>
-  </si>
-  <si>
-    <t>金牌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/100%E7%B1%B3</t>
-  </si>
-  <si>
-    <t>100米</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/200%E7%B1%B3</t>
-  </si>
-  <si>
-    <t>200米</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%8F%AF%C2%B7%E8%A9%B9%E6%A3%AE_(%E7%94%B0%E5%BE%91%E9%81%8B%E5%8B%95%E5%93%A1)</t>
-  </si>
-  <si>
-    <t>麥可·詹森 (田徑運動員)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>卡尔·刘易斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%96%A9%E6%B3%95%C2%B7%E9%AE%91%E5%A8%81%E7%88%BE</t>
-  </si>
-  <si>
-    <t>阿薩法·鮑威爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
-  </si>
-  <si>
-    <t>International Monetary Fund</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E5%AF%BC%E6%B8%B8</t>
-  </si>
-  <si>
-    <t>维基导游</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
-  </si>
-  <si>
-    <t>世界概况</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
-  </si>
-  <si>
-    <t>开放式目录</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wikia</t>
-  </si>
-  <si>
-    <t>Wikia</t>
-  </si>
-  <si>
-    <t>http://www.wikia.com/wiki/c:world:Jamaica:Main_Page</t>
-  </si>
-  <si>
-    <t>wikiasite-world-Jamaica-Main Page</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:America</t>
-  </si>
-  <si>
-    <t>Template talk-America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
-  </si>
-  <si>
-    <t>中美 (政治地理学)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E5%85%B9</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B7%B4%E5%A4%9A%E6%96%AF</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>多明尼加共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>聖克里斯多福與尼維斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%96%87%E6%A3%AE%E7%89%B9%E5%92%8C%E6%A0%BC%E6%9E%97%E7%BA%B3%E4%B8%81%E6%96%AF</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
-  </si>
-  <si>
-    <t>千里達及托巴哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>哥倫比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%AD%E4%BA%9A%E9%82%A3</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
-  </si>
-  <si>
-    <t>秘魯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
-  </si>
-  <si>
-    <t>蘇利南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
-  </si>
-  <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安圭拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>阿魯巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>庫拉索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
-  </si>
-  <si>
-    <t>荷屬聖馬丁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>英屬維京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>開曼群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>福克蘭群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
-  </si>
-  <si>
-    <t>法屬圭亞那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
-  </si>
-  <si>
-    <t>馬提尼克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
-  </si>
-  <si>
-    <t>法屬聖馬丁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>聖巴泰勒米島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>蒙塞拉特島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>納弗沙島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%92%8C%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>南乔治亚和南桑威奇群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E5%92%8C%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>歐洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>主权国家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%9C%AD%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波札那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%8E%B1</t>
-  </si>
-  <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A6%E9%9A%86</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%B7%B4%E6%96%AF</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E7%B4%A2%E6%89%98</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E7%BB%B4</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E6%B1%82%E6%96%AF</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%99%E9%B2%81</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E5%85%B0</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>奈及利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9A%E6%96%B0%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%97%BA%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%91%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%88%8C%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%80%E7%BD%97%E9%97%A8%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>斯里蘭卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>湯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
-  </si>
-  <si>
-    <t>圖瓦盧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%83%E5%A4%96%E9%A2%86</t>
-  </si>
-  <si>
-    <t>境外领</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>亞什摩及卡地爾群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>澳大利亚南极领地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%AF%9E%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>圣诞岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%A7%91%E6%96%AF%EF%BC%88%E5%9F%BA%E6%9E%97%EF%BC%89%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>科科斯（基林）群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E6%B5%B7%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>珊瑚海群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賀得及麥唐納群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E5%85%8B%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
-  </si>
-  <si>
-    <t>紐埃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>罗斯属地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%85%8B%E5%8A%B3</t>
-  </si>
-  <si>
-    <t>托克劳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E7%BD%97%E8%92%82%E9%87%8C%E5%92%8C%E5%BE%B7%E5%87%AF%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿克罗蒂里和德凯利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>英属南极领地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A2%86%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>英属印度洋领地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>福克兰群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%81%A9%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>马恩岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%BD%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>泽西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>皮特凯恩群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B5%AB%E5%8B%92%E6%8B%BF%E3%80%81%E9%98%BF%E6%A3%AE%E6%9D%BE%E5%92%8C%E7%89%B9%E9%87%8C%E6%96%AF%E5%9D%A6-%E8%BE%BE%E5%BA%93%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>圣赫勒拿、阿森松和特里斯坦-达库尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E4%B8%8E%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>特克斯与凯科斯群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8D%94%E5%A2%83%E5%9F%9F</t>
-  </si>
-  <si>
-    <t>國協境域</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E9%A2%86</t>
-  </si>
-  <si>
-    <t>自治领</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E9%81%94%E5%90%9B%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布達君主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>紐西蘭王國</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Monarchy_in_the_Cook_Islands</t>
-  </si>
-  <si>
-    <t>en-Monarchy in the Cook Islands</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_Niuean_monarchs</t>
-  </si>
-  <si>
-    <t>en-List of Niuean monarchs</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
-  </si>
-  <si>
-    <t>錫蘭自治領</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E%E8%87%AA%E6%B2%BB%E9%A2%86</t>
-  </si>
-  <si>
-    <t>斐济自治领</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Monarchy_of_Fiji</t>
-  </si>
-  <si>
-    <t>en-Monarchy of Fiji</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/The_Gambia_(Commonwealth_realm)</t>
-  </si>
-  <si>
-    <t>en-The Gambia (Commonwealth realm)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Guyana_(Commonwealth_realm)</t>
-  </si>
-  <si>
-    <t>en-Guyana (Commonwealth realm)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E8%87%AA%E7%94%B1%E9%82%A6</t>
-  </si>
-  <si>
-    <t>爱尔兰自由邦</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Monarchy_in_the_Irish_Free_State</t>
-  </si>
-  <si>
-    <t>en-Monarchy in the Irish Free State</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kenya_(Commonwealth_realm)</t>
-  </si>
-  <si>
-    <t>en-Kenya (Commonwealth realm)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Malawi_(Commonwealth_realm)</t>
-  </si>
-  <si>
-    <t>en-Malawi (Commonwealth realm)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_of_Malta</t>
-  </si>
-  <si>
-    <t>en-State of Malta</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mauritius_(Commonwealth_realm)</t>
-  </si>
-  <si>
-    <t>en-Mauritius (Commonwealth realm)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
-  </si>
-  <si>
-    <t>紐芬蘭自治領</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Federation_of_Nigeria</t>
-  </si>
-  <si>
-    <t>en-Federation of Nigeria</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅德西亞</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sierra_Leone_(Commonwealth_realm)</t>
-  </si>
-  <si>
-    <t>en-Sierra Leone (Commonwealth realm)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Monarchy_of_South_Africa</t>
-  </si>
-  <si>
-    <t>en-Monarchy of South Africa</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%99%B6%E5%B0%BC%E5%96%80</t>
-  </si>
-  <si>
-    <t>坦噶尼喀</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Trinidad_and_Tobago_(Commonwealth_realm)</t>
-  </si>
-  <si>
-    <t>en-Trinidad and Tobago (Commonwealth realm)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Uganda_(Commonwealth_realm)</t>
-  </si>
-  <si>
-    <t>en-Uganda (Commonwealth realm)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/1931%E5%B9%B4%E5%A8%81%E6%96%AF%E6%95%8F%E6%96%AF%E7%89%B9%E6%B3%95%E4%BB%A4</t>
-  </si>
-  <si>
-    <t>1931年威斯敏斯特法令</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>不结盟运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
-  </si>
-  <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
-  </si>
-  <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
-  </si>
-  <si>
-    <t>汶萊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9A%86%E8%BF%AA</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中非共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
-  </si>
-  <si>
-    <t>葛摩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>刚果共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>朝鲜民主主义人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>刚果民主共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E6%8F%90</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>多米尼加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%AB%8B%E7%89%B9%E9%87%8C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%93%AC</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%AF%94%E7%BB%8D</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%BE%BE%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E4%BB%A3%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E9%87%8C%E5%A1%94%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>蒙古国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼泊尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%B0%94</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A9%AC%E9%87%8C</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%93%E6%9B%BC%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%94%E5%90%88%E9%85%8B%E9%95%BF%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>阿拉伯联合酋长国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞美尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E5%9C%B0%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>非洲联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>阿拉伯国家联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%90%88%E4%BD%9C%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>伊斯兰合作组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>联合国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>牙買加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞士歷史辭典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2754,7 +2727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I421"/>
+  <dimension ref="A1:I422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4748,7 +4721,7 @@
         <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="G69" t="n">
         <v>10</v>
@@ -4774,10 +4747,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4803,10 +4776,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -4832,10 +4805,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4861,10 +4834,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4890,10 +4863,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4919,10 +4892,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4948,10 +4921,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4977,10 +4950,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -5035,10 +5008,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" t="s">
         <v>149</v>
-      </c>
-      <c r="F79" t="s">
-        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5093,10 +5066,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" t="s">
         <v>151</v>
-      </c>
-      <c r="F81" t="s">
-        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -5122,10 +5095,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" t="s">
         <v>153</v>
-      </c>
-      <c r="F82" t="s">
-        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -5151,10 +5124,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" t="s">
         <v>147</v>
-      </c>
-      <c r="F83" t="s">
-        <v>148</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5180,10 +5153,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -5209,10 +5182,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -5238,10 +5211,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -5267,10 +5240,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5296,10 +5269,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>4</v>
@@ -5325,10 +5298,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5354,10 +5327,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5383,10 +5356,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5412,10 +5385,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5441,10 +5414,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5470,10 +5443,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5499,10 +5472,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5528,10 +5501,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -5557,10 +5530,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5586,10 +5559,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5615,10 +5588,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5644,10 +5617,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5673,10 +5646,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5702,10 +5675,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5731,10 +5704,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5760,10 +5733,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5789,10 +5762,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5818,10 +5791,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5847,10 +5820,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5876,10 +5849,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5905,10 +5878,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5934,10 +5907,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5963,10 +5936,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5992,10 +5965,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -6021,10 +5994,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -6050,10 +6023,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -6079,10 +6052,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6108,10 +6081,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6137,10 +6110,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6166,10 +6139,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -6195,10 +6168,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6224,10 +6197,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6253,10 +6226,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -6282,10 +6255,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6311,10 +6284,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -6340,10 +6313,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>3</v>
@@ -6369,10 +6342,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6398,10 +6371,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6427,10 +6400,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6456,10 +6429,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6485,10 +6458,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6514,10 +6487,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6543,10 +6516,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6572,10 +6545,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6601,10 +6574,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6630,10 +6603,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6659,10 +6632,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -6688,10 +6661,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6717,10 +6690,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6746,10 +6719,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6775,10 +6748,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6804,10 +6777,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6833,10 +6806,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6862,10 +6835,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -6891,10 +6864,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -6920,10 +6893,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6949,10 +6922,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6978,10 +6951,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7007,10 +6980,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7036,10 +7009,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7065,10 +7038,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7094,10 +7067,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7123,10 +7096,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7152,10 +7125,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>13</v>
@@ -7181,10 +7154,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>7</v>
@@ -7210,10 +7183,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -7239,10 +7212,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7268,10 +7241,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>4</v>
@@ -7297,10 +7270,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7326,10 +7299,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7355,10 +7328,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7384,10 +7357,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7413,10 +7386,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -7442,10 +7415,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7471,10 +7444,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7500,10 +7473,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7529,10 +7502,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7558,10 +7531,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7587,10 +7560,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7616,10 +7589,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -7645,10 +7618,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>4</v>
@@ -7674,10 +7647,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -7703,10 +7676,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -7732,10 +7705,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -7761,10 +7734,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7790,10 +7763,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>4</v>
@@ -7819,10 +7792,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7848,10 +7821,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7877,10 +7850,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7906,10 +7879,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7935,10 +7908,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>4</v>
@@ -7964,10 +7937,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7993,10 +7966,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -8022,10 +7995,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8051,10 +8024,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8080,10 +8053,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -8109,10 +8082,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8138,10 +8111,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8167,10 +8140,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -8196,10 +8169,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8225,10 +8198,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8254,10 +8227,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8283,10 +8256,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -8312,10 +8285,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -8341,10 +8314,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8370,10 +8343,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8399,10 +8372,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8428,10 +8401,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8457,10 +8430,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8486,10 +8459,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8515,10 +8488,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8544,10 +8517,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8573,10 +8546,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8602,10 +8575,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8631,10 +8604,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8660,10 +8633,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8689,10 +8662,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8718,10 +8691,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F206" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8747,10 +8720,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8776,10 +8749,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F208" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8805,10 +8778,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8834,10 +8807,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8863,10 +8836,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8892,10 +8865,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8921,10 +8894,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8950,10 +8923,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8979,10 +8952,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9008,10 +8981,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G216" t="n">
         <v>4</v>
@@ -9037,10 +9010,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9066,10 +9039,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9095,10 +9068,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9124,10 +9097,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9153,10 +9126,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9182,10 +9155,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>120</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9211,10 +9184,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -9240,10 +9213,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9269,10 +9242,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9298,10 +9271,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9327,10 +9300,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9356,10 +9329,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9385,10 +9358,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -9414,10 +9387,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G230" t="n">
         <v>7</v>
@@ -9443,10 +9416,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9472,10 +9445,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9501,10 +9474,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9530,10 +9503,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G234" t="n">
         <v>3</v>
@@ -9559,10 +9532,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9588,10 +9561,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9617,10 +9590,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -9646,10 +9619,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9675,10 +9648,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -9704,10 +9677,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9733,10 +9706,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -9762,10 +9735,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -9791,10 +9764,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G243" t="n">
         <v>3</v>
@@ -9820,10 +9793,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -9849,10 +9822,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9878,10 +9851,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F246" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -9907,10 +9880,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F247" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9936,10 +9909,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F248" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -9965,10 +9938,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9994,10 +9967,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -10023,10 +9996,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10052,10 +10025,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10081,10 +10054,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G253" t="n">
         <v>3</v>
@@ -10110,10 +10083,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10139,10 +10112,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F255" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10168,10 +10141,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F256" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10197,10 +10170,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F257" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10226,10 +10199,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F258" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10255,10 +10228,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F259" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -10284,10 +10257,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10313,10 +10286,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -10342,13 +10315,13 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -10371,10 +10344,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10400,10 +10373,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10429,10 +10402,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10458,10 +10431,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10487,10 +10460,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10516,10 +10489,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10545,10 +10518,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10574,10 +10547,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10603,10 +10576,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10632,10 +10605,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10661,10 +10634,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10690,10 +10663,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10719,10 +10692,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F275" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10748,10 +10721,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F276" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10777,10 +10750,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F277" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10806,10 +10779,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F278" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10835,10 +10808,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F279" t="s">
-        <v>538</v>
+        <v>386</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10864,10 +10837,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F280" t="s">
-        <v>540</v>
+        <v>388</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10893,10 +10866,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F281" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10922,10 +10895,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F282" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10951,10 +10924,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F283" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10980,10 +10953,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F284" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11009,10 +10982,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F285" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11038,10 +11011,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11067,10 +11040,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11096,10 +11069,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11125,10 +11098,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11154,10 +11127,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F290" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -11183,10 +11156,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F291" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G291" t="n">
         <v>22</v>
@@ -11212,10 +11185,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F292" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11241,10 +11214,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F293" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11270,10 +11243,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11299,10 +11272,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F295" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11328,10 +11301,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F296" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G296" t="n">
         <v>3</v>
@@ -11357,10 +11330,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F297" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11386,10 +11359,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F298" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11415,10 +11388,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F299" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11444,10 +11417,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F300" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11473,10 +11446,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F301" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11502,10 +11475,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F302" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11531,10 +11504,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F303" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11560,10 +11533,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F304" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11589,10 +11562,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11618,10 +11591,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11647,10 +11620,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11676,10 +11649,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11705,10 +11678,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11734,10 +11707,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11763,10 +11736,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11792,10 +11765,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11821,10 +11794,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11850,10 +11823,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11879,10 +11852,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11908,10 +11881,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11937,10 +11910,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11966,10 +11939,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11995,10 +11968,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12024,10 +11997,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12053,10 +12026,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12082,10 +12055,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>308</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12111,10 +12084,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12140,10 +12113,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12169,10 +12142,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>350</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12198,10 +12171,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12227,10 +12200,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12256,10 +12229,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12285,10 +12258,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12314,10 +12287,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F330" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12343,10 +12316,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F331" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12372,10 +12345,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F332" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12401,10 +12374,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F333" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12430,10 +12403,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F334" t="s">
-        <v>646</v>
+        <v>356</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12459,10 +12432,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F335" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12488,10 +12461,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F336" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12517,10 +12490,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F337" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12546,10 +12519,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F338" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12575,10 +12548,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F339" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -12604,10 +12577,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F340" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12633,10 +12606,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F341" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -12662,10 +12635,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F342" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12691,10 +12664,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F343" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12720,10 +12693,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F344" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12749,10 +12722,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F345" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12778,10 +12751,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F346" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12807,10 +12780,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F347" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -12836,10 +12809,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F348" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12865,10 +12838,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F349" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G349" t="n">
         <v>6</v>
@@ -12894,10 +12867,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F350" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12923,10 +12896,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F351" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12952,10 +12925,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F352" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12981,10 +12954,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13010,10 +12983,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F354" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13039,10 +13012,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F355" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13068,10 +13041,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F356" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13097,10 +13070,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F357" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13126,10 +13099,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F358" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13155,10 +13128,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F359" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13184,10 +13157,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F360" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13213,10 +13186,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F361" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13242,10 +13215,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F362" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13271,10 +13244,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F363" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13300,10 +13273,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F364" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13329,10 +13302,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F365" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13358,10 +13331,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F366" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13387,10 +13360,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F367" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13416,10 +13389,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F368" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13445,10 +13418,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F369" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13474,10 +13447,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F370" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13503,10 +13476,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F371" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13532,10 +13505,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F372" t="s">
-        <v>716</v>
+        <v>362</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13561,10 +13534,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="F373" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13590,10 +13563,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F374" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13619,10 +13592,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="F375" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13648,10 +13621,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="F376" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13677,10 +13650,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="F377" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13706,10 +13679,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F378" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13735,10 +13708,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F379" t="s">
-        <v>730</v>
+        <v>487</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13764,10 +13737,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F380" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13793,10 +13766,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F381" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13822,10 +13795,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F382" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13851,10 +13824,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F383" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13880,10 +13853,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F384" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13909,10 +13882,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F385" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13938,10 +13911,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F386" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13967,10 +13940,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F387" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13996,10 +13969,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F388" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14025,10 +13998,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F389" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14054,10 +14027,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="F390" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14083,10 +14056,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F391" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14112,10 +14085,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F392" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14141,10 +14114,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="F393" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14170,10 +14143,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F394" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14199,10 +14172,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F395" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14228,10 +14201,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F396" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14257,10 +14230,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F397" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14286,10 +14259,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F398" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14315,10 +14288,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F399" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14344,10 +14317,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F400" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14373,10 +14346,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="F401" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14402,10 +14375,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="F402" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14431,10 +14404,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F403" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14460,10 +14433,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="F404" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14489,10 +14462,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F405" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14518,10 +14491,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F406" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14547,13 +14520,13 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>783</v>
+        <v>193</v>
       </c>
       <c r="F407" t="s">
-        <v>784</v>
+        <v>194</v>
       </c>
       <c r="G407" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="H407" t="s">
         <v>4</v>
@@ -14576,10 +14549,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="F408" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14605,10 +14578,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F409" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14634,10 +14607,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="F410" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14663,10 +14636,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F411" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14692,10 +14665,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="F412" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14721,10 +14694,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F413" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14779,13 +14752,13 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>205</v>
+        <v>773</v>
       </c>
       <c r="F415" t="s">
-        <v>206</v>
+        <v>774</v>
       </c>
       <c r="G415" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H415" t="s">
         <v>4</v>
@@ -14808,13 +14781,13 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F416" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G416" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H416" t="s">
         <v>4</v>
@@ -14837,10 +14810,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F417" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14866,10 +14839,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="F418" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14895,10 +14868,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="F419" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14924,10 +14897,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="F420" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -14953,18 +14926,47 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="F421" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="G421" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
       </c>
       <c r="I421" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="s">
+        <v>0</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1</v>
+      </c>
+      <c r="D422" t="n">
+        <v>421</v>
+      </c>
+      <c r="E422" t="s">
+        <v>785</v>
+      </c>
+      <c r="F422" t="s">
+        <v>787</v>
+      </c>
+      <c r="G422" t="n">
+        <v>1</v>
+      </c>
+      <c r="H422" t="s">
+        <v>4</v>
+      </c>
+      <c r="I422" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/牙买加_intext.xlsx
+++ b/xlsx/牙买加_intext.xlsx
@@ -29,7 +29,7 @@
     <t>牙買加國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_牙买加</t>
+    <t>体育运动_体育运动_伊朗_牙买加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0%E5%9B%BD%E5%BE%BD</t>
